--- a/сравнение.xlsx
+++ b/сравнение.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\МОДЕЛИРОВАНИЕ\ERW3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elite\Desktop\1\ERW3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9BF6D4-1A21-49C3-BB39-BEE204AF4D2B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035891EC-A065-44D8-8435-84EA3BCA008E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{BCDFFBD6-1EAD-4E38-AAA0-0F2C91E3134C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BCDFFBD6-1EAD-4E38-AAA0-0F2C91E3134C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -137,8 +148,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="173" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -262,9 +273,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -273,35 +313,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,29 +630,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA1C18D-A2E3-44B7-BF8B-E0B7E534C0B0}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="57" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -654,9 +665,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="7"/>
+    <row r="2" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -667,169 +678,169 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="9">
         <v>0.70909999999999995</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="10">
         <v>0.753</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="5">
         <f>100*ABS(C3-D3)/D3</f>
         <v>5.8300132802124898</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="9">
         <v>0.45390000000000003</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="10">
         <v>0.45500000000000002</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="5">
         <f t="shared" ref="E4:E22" si="0">100*ABS(C4-D4)/D4</f>
         <v>0.24175824175823951</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="9">
         <v>0.26450000000000001</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="10">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>31.592039800995021</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="9">
         <v>0.4758</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="10">
         <v>0.46970000000000001</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>1.2987012987012976</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="9">
         <v>0.21190000000000001</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="10">
         <v>0.25290000000000001</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>16.211941478845393</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="9">
         <v>0.15909999999999999</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="10">
         <v>0.15939999999999999</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>0.18820577164366045</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="9">
         <v>0.24179999999999999</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="10">
         <v>0.20168</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>19.892899642998803</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="9">
         <f>AVERAGE(C7:C9)</f>
         <v>0.20426666666666668</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="10">
         <v>0.2177</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>6.1705711223396067</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="9">
         <v>0.65939999999999999</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="10">
         <v>0.75700000000000001</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>12.892998678996038</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="9">
         <v>0.15909999999999999</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="10">
         <v>0.159</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>6.2893081760999364E-2</v>
       </c>
@@ -840,18 +851,18 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="9">
         <v>0</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="10">
         <v>0</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="5">
         <v>0</v>
       </c>
       <c r="F13" t="s">
@@ -861,18 +872,18 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16"/>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="9">
         <v>0.81850000000000001</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="10">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>10.644104803493454</v>
       </c>
@@ -883,21 +894,21 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="9">
         <v>1.3685</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="10">
         <f>D34*G12</f>
         <v>1.8040500000000002</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>24.142900695656994</v>
       </c>
@@ -908,19 +919,19 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="9">
         <v>0.61299999999999999</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="10">
         <f t="shared" ref="D16:D18" si="1">D35*G13</f>
         <v>0.72980999999999996</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>16.005535687370681</v>
       </c>
@@ -933,14 +944,14 @@
       <c r="J16" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="6">
         <f>1/14.093</f>
         <v>7.0957212800681194E-2</v>
       </c>
       <c r="N16" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="11">
         <f>1/Q16</f>
         <v>13.831258644536652</v>
       </c>
@@ -951,35 +962,34 @@
         <v>7.2300000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="9">
         <v>0.26450000000000001</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="10">
         <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>26.527777777777771</v>
       </c>
       <c r="J17" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="6">
         <f>K16*0.5</f>
         <v>3.5478606400340597E-2</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="16">
-        <f>1/Q17</f>
-        <v>8.8417329796640143</v>
+      <c r="O17">
+        <v>8.8420000000000005</v>
       </c>
       <c r="P17" t="s">
         <v>32</v>
@@ -988,33 +998,33 @@
         <v>0.11310000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16"/>
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="9">
         <v>2.246</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="10">
         <f t="shared" si="1"/>
         <v>2.9699999999999998</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>24.37710437710437</v>
       </c>
       <c r="J18" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="6">
         <f>K16*0.3</f>
         <v>2.1287163840204359E-2</v>
       </c>
       <c r="N18" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="11">
         <f>1/Q18</f>
         <v>4.4843049327354256</v>
       </c>
@@ -1025,330 +1035,325 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="9">
         <v>0.35460000000000003</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="10">
         <f>(1-D7)*G12</f>
         <v>0.33619500000000002</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>5.4745014054343475</v>
       </c>
       <c r="J19" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="6">
         <f>K16*0.2</f>
         <v>1.419144256013624E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15"/>
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="9">
         <v>0.22700000000000001</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="10">
         <f t="shared" ref="D20:D22" si="2">(1-D8)*G13</f>
         <v>0.22696200000000002</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>1.6742890880403982E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15"/>
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="9">
         <v>0.13650000000000001</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="10">
         <f t="shared" si="2"/>
         <v>0.14369760000000001</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>5.0088519223703099</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16"/>
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="9">
         <v>0.71819999999999995</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="10">
         <f t="shared" si="2"/>
         <v>0.70406999999999997</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>2.0069027227406333</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:17" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="18" t="s">
+    <row r="25" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="10">
         <v>0.29089999999999999</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="10">
         <f>1-D3</f>
         <v>0.247</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="5">
         <f>100*ABS(C26-D26)/D26</f>
         <v>17.773279352226719</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="15"/>
       <c r="B27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="10">
         <v>0.54610000000000003</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="10">
         <f t="shared" ref="D27:D29" si="3">1-D4</f>
         <v>0.54499999999999993</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="5">
         <f t="shared" ref="E27:E37" si="4">100*ABS(C27-D27)/D27</f>
         <v>0.20183486238533965</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="15"/>
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="10">
         <v>0.73550000000000004</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="10">
         <f t="shared" si="3"/>
         <v>0.79899999999999993</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="5">
         <f t="shared" si="4"/>
         <v>7.9474342928660695</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="16"/>
       <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="10">
         <v>0.5242</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="10">
         <f t="shared" si="3"/>
         <v>0.53029999999999999</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="5">
         <f t="shared" si="4"/>
         <v>1.1502922873844983</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="10">
         <v>1.8593</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="10">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="5">
         <f t="shared" si="4"/>
         <v>7.4975124378109372</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
+    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
       <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="10">
         <v>0.70069999999999999</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="10">
         <v>0.70099999999999996</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="5">
         <f t="shared" si="4"/>
         <v>4.2796005706129382E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
+    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15"/>
       <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="10">
         <v>0</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="10">
         <v>0</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="16"/>
       <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="10">
         <v>1.1396999999999999</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="10">
         <v>1.3</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="5">
         <f t="shared" si="4"/>
         <v>12.33076923076924</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="10">
         <v>3.8593000000000002</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="10">
         <v>4.0090000000000003</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="5">
         <f t="shared" si="4"/>
         <v>3.7340982788725405</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="15"/>
       <c r="B35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="10">
         <v>2.3007</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="10">
         <v>2.7029999999999998</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="5">
         <f t="shared" si="4"/>
         <v>14.883462819089898</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="15"/>
       <c r="B36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="10">
         <v>2</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="10">
         <v>2</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="16"/>
       <c r="B37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="10">
         <v>3.1396999999999999</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="10">
         <v>3.3</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="5">
         <f t="shared" si="4"/>
         <v>4.8575757575757539</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="11"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1356,6 +1361,11 @@
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
